--- a/biology/Botanique/Pleosporales/Pleosporales.xlsx
+++ b/biology/Botanique/Pleosporales/Pleosporales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pleosporales sont un ordre de champignons de la classe des Dothideomycetes.
-Selon une estimation de 2008, cet ordre, le plus important des Dothideomycetes, contient 23 familles, 332 genres et plus de 4700 espèces[2].
-La majorité des espèces sont saprophytes sur matière végétale en décomposition dans l'eau douce[3], l'eau marine[4] ou dans des environnements terrestres, mais de nombreuses espèces sont aussi associées aux plantes vivantes comme parasites épiphytes ou endophytes[5].
+Selon une estimation de 2008, cet ordre, le plus important des Dothideomycetes, contient 23 familles, 332 genres et plus de 4700 espèces.
+La majorité des espèces sont saprophytes sur matière végétale en décomposition dans l'eau douce, l'eau marine ou dans des environnements terrestres, mais de nombreuses espèces sont aussi associées aux plantes vivantes comme parasites épiphytes ou endophytes.
 Les espèces les plus étudiées sont celles qui causent des maladies des plantes sur les grandes cultures agricoles, comme Cochliobolus heterostrophus, responsable de l'helminthosporiose du maïs,  Phaeosphaeria nodorum (Stagonospora nodorum) responsable de  la septoriose du blé et Leptosphaeria maculans responsable de la jambe noire des crucifères (Brassica spp.). 
-Certaines espèces de Pleosporales se développent sur des excréments d'animaux[6] d'autres se rencontrent sous la forme de lichens[7] ou d'autre encore sous la forme de colonies noires à croissance lentes à la surface des rochers[8].  
-Le plus ancien membre de l'ordre des Pleosporales est un genre éteint, Margaretbarromyces, datant de l'Éocène, qui a été décrit dans l'île de Vancouver (Colombie-Britannique)[9].
+Certaines espèces de Pleosporales se développent sur des excréments d'animaux d'autres se rencontrent sous la forme de lichens ou d'autre encore sous la forme de colonies noires à croissance lentes à la surface des rochers.  
+Le plus ancien membre de l'ordre des Pleosporales est un genre éteint, Margaretbarromyces, datant de l'Éocène, qui a été décrit dans l'île de Vancouver (Colombie-Britannique).
 </t>
         </is>
       </c>
@@ -516,9 +528,11 @@
           <t>Liste des genres et familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (21 août 2017)[10] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 août 2017) :
 famille des Acrocalymmaceae
 famille des Aigialaceae
 famille des Amniculicolaceae
@@ -565,7 +579,7 @@
 famille des Trematosphaeriaceae
 famille des Wicklowiaceae
 famille des Zopfiaceae
-Selon ITIS      (21 août 2017)[11] :
+Selon ITIS      (21 août 2017) :
 genre Coniothyrium Corda, 1880
 famille des Aigialaceae
 famille des Amniculicolaceae
